--- a/投资可转债实录.xlsx
+++ b/投资可转债实录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7710" activeTab="1"/>
+    <workbookView windowWidth="19890" windowHeight="7710" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="当前持仓记录" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>开始时间</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>买入20份浦发转债，成交价：104.62</t>
+  </si>
+  <si>
+    <t>卖出20份亚药转债，成交价：81.36</t>
   </si>
 </sst>
 </file>
@@ -123,10 +126,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -161,52 +164,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,14 +188,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,43 +262,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -332,43 +335,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,133 +509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,21 +538,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -559,31 +547,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,17 +577,46 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,10 +628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,137 +640,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -786,9 +789,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -805,9 +805,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1173,7 +1170,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1205,7 +1202,7 @@
         <v>3438.8</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" spans="1:9">
+    <row r="2" s="7" customFormat="1" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1235,189 +1232,189 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
+        <v>80.021</v>
+      </c>
+      <c r="E3" s="3">
+        <v>80.809</v>
+      </c>
+      <c r="F3" s="8">
+        <v>808.09</v>
+      </c>
+      <c r="G3" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3">
+        <v>100</v>
+      </c>
+      <c r="E4" s="3">
+        <v>111.43</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1114.3</v>
+      </c>
+      <c r="G4" s="9">
+        <v>5.6</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3">
         <v>20</v>
       </c>
-      <c r="D3" s="6">
-        <v>80.021</v>
-      </c>
-      <c r="E3" s="6">
-        <v>79.964</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1599.28</v>
-      </c>
-      <c r="G3" s="10">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="D5" s="3">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3">
+        <v>100</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2000</v>
+      </c>
+      <c r="G5" s="9">
         <v>10</v>
       </c>
-      <c r="D4" s="6">
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3">
         <v>100</v>
       </c>
-      <c r="E4" s="6">
-        <v>111.43</v>
-      </c>
-      <c r="F4" s="9">
-        <v>1114.3</v>
-      </c>
-      <c r="G4" s="10">
-        <v>5.6</v>
-      </c>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="E6" s="3">
+        <v>101</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3">
+        <v>100</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3">
         <v>20</v>
       </c>
-      <c r="D5" s="6">
-        <v>100</v>
-      </c>
-      <c r="E5" s="6">
-        <v>100</v>
-      </c>
-      <c r="F5" s="9">
-        <v>2000</v>
-      </c>
-      <c r="G5" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="6">
-        <v>10</v>
-      </c>
-      <c r="D6" s="6">
-        <v>100</v>
-      </c>
-      <c r="E6" s="6">
-        <v>101</v>
-      </c>
-      <c r="F6" s="9">
-        <v>1000</v>
-      </c>
-      <c r="G6" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="6">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="6">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6">
-        <v>100</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1000</v>
-      </c>
-      <c r="F7" s="9">
-        <v>1000</v>
-      </c>
-      <c r="G7" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="6">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="D8" s="3">
+        <v>104.62</v>
+      </c>
+      <c r="E8" s="3">
+        <v>104.67</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2093</v>
+      </c>
+      <c r="G8" s="11">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="6">
-        <v>104.62</v>
-      </c>
-      <c r="E8" s="6">
-        <v>104.67</v>
-      </c>
-      <c r="F8" s="9">
-        <v>2093</v>
-      </c>
-      <c r="G8" s="12">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="14">
-        <v>8806.58</v>
-      </c>
-      <c r="G9" s="6"/>
+      <c r="F9" s="12">
+        <v>8015.39</v>
+      </c>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="13" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="15">
-        <v>11501.12</v>
-      </c>
-      <c r="G10" s="6"/>
+      <c r="F10" s="13">
+        <v>11984.61</v>
+      </c>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="13" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="16">
-        <v>0.441</v>
-      </c>
-      <c r="G11" s="6"/>
+      <c r="F11" s="14">
+        <v>0.402</v>
+      </c>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="5:6">
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="17">
-        <v>773</v>
+      <c r="F12" s="15">
+        <v>781.39</v>
       </c>
     </row>
   </sheetData>
@@ -1432,8 +1429,8 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1462,31 +1459,51 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="3">
         <v>10</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="3">
         <v>100</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="3">
         <v>177.3</v>
       </c>
       <c r="F2">
         <v>773</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
+        <v>80.021</v>
+      </c>
+      <c r="E3" s="3">
+        <v>81.36</v>
+      </c>
+      <c r="F3">
+        <v>8.36</v>
+      </c>
+    </row>
     <row r="9" spans="5:6">
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F9">
-        <v>773</v>
+        <v>781.39</v>
       </c>
     </row>
   </sheetData>
@@ -1501,8 +1518,8 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1553,9 +1570,15 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>44064</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3"/>
